--- a/biology/Botanique/Asperula/Asperula.xlsx
+++ b/biology/Botanique/Asperula/Asperula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asperula  est un genre végétal constitué de 186 espèces de la famille des Rubiacées. Parfois, certaines espèces de Galium (tel que le Gaillet odorant) y sont incluses.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont des plantes herbacées ou formant de petits buissons, rarement ligneux à la base[1]. Les rameaux ont une section quadrangulaire[1]. Les feuilles, souvent dotées de stipules, sont disposées en verticilles de 4 à 14 ; elles peuvent être sessiles ou à pétiole très court[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont des plantes herbacées ou formant de petits buissons, rarement ligneux à la base. Les rameaux ont une section quadrangulaire. Les feuilles, souvent dotées de stipules, sont disposées en verticilles de 4 à 14 ; elles peuvent être sessiles ou à pétiole très court.
 L'inflorescence varie selon les espèces (forme de thyrse, de panicule, de capitule ou de cyme) mais est toujours précédée de bractées, qui sont souvent soudées. 
-Chaque fleur est petite, dotée ou non d'un pédicelle, est précédée d’une bractéole. Le calice est très réduit, quasiment absent. La corolle est colorée, de forme variant avec les espèces, mais toujours à pétales soudés à la base et à 5 (ou 4) lobes libres à l'extrémité[2]. Les 4 ou 5 étamines s'insèrent au niveau de l'intérieur du tube formé par la corolle. L'ovaire est infère, à deux loges contenant chacune un seul ovule. Le stigmate présente souvent deux lobes[2].
-Le fruit est un schizocarpe à deux méricarpes produisant chacun un akène. Les akènes sont petits, contiennent un embryon courbe et un albumen dur[2],[1].
+Chaque fleur est petite, dotée ou non d'un pédicelle, est précédée d’une bractéole. Le calice est très réduit, quasiment absent. La corolle est colorée, de forme variant avec les espèces, mais toujours à pétales soudés à la base et à 5 (ou 4) lobes libres à l'extrémité. Les 4 ou 5 étamines s'insèrent au niveau de l'intérieur du tube formé par la corolle. L'ovaire est infère, à deux loges contenant chacune un seul ovule. Le stigmate présente souvent deux lobes.
+Le fruit est un schizocarpe à deux méricarpes produisant chacun un akène. Les akènes sont petits, contiennent un embryon courbe et un albumen dur,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont réparties en Europe, Asie, Afrique et Océanie. Une grande proportion de ces espèces proviennent des régions arides du Moyen et Proche-Orient[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont réparties en Europe, Asie, Afrique et Océanie. Une grande proportion de ces espèces proviennent des régions arides du Moyen et Proche-Orient.
 </t>
         </is>
       </c>
@@ -578,10 +594,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asperula et Galium
-Les genres Asperula et Galium ont à l'origine été distingués sur la base de la morphologie de la corolle. Mais même après plusieurs tentatives de redéfinition de ces deux genres sur d'autres bases, morphologiques (notamment la présence ou non de bractéoles) ou génétiques (analyses d’ADN), leur taxonomie n'était toujours pas totalement résolue en 2010[2].
-Liste d'espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (28 févr. 2011)[3] et Catalogue of Life                                   (11 mars 2012)[4] :
+          <t>Asperula et Galium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres Asperula et Galium ont à l'origine été distingués sur la base de la morphologie de la corolle. Mais même après plusieurs tentatives de redéfinition de ces deux genres sur d'autres bases, morphologiques (notamment la présence ou non de bractéoles) ou génétiques (analyses d’ADN), leur taxonomie n'était toujours pas totalement résolue en 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asperula</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asperula</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (28 févr. 2011) et Catalogue of Life                                   (11 mars 2012) :
 Asperula abbreviata (Halácsy) Rech.f., Denkschr. Kaiserl. Akad. Wiss. (1943)
 Asperula abchasica V.I.Krecz. (1934)
 Asperula accrescens Klokov (1958)
